--- a/public/documents/template.xlsx
+++ b/public/documents/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\telkom\storage\app\participant_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\telkom\public\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,35 +24,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
-  <si>
-    <t>Senior Manager</t>
-  </si>
-  <si>
-    <t>HCM</t>
-  </si>
-  <si>
-    <t>Manager</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Nomor</t>
   </si>
   <si>
-    <t>Nama</t>
-  </si>
-  <si>
     <t>Nik</t>
   </si>
   <si>
-    <t>Job</t>
-  </si>
-  <si>
-    <t>Division</t>
-  </si>
-  <si>
-    <t>UBPP</t>
-  </si>
-  <si>
     <t>contohnik123</t>
   </si>
   <si>
@@ -62,19 +41,7 @@
     <t>contohnik345</t>
   </si>
   <si>
-    <t>Ahmad Fajar</t>
-  </si>
-  <si>
-    <t>Zendaya Salim</t>
-  </si>
-  <si>
-    <t>Jack Marpa</t>
-  </si>
-  <si>
-    <t>HRD</t>
-  </si>
-  <si>
-    <t>Junior Manager</t>
+    <t>UBPP (%)</t>
   </si>
 </sst>
 </file>
@@ -113,7 +80,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,84 +408,48 @@
     <col min="4" max="4" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.9</v>
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.9</v>
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.9</v>
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/public/documents/template.xlsx
+++ b/public/documents/template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Nomor</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>contohnik345</t>
-  </si>
-  <si>
-    <t>UBPP (%)</t>
   </si>
 </sst>
 </file>
@@ -398,7 +395,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,9 +412,6 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -426,9 +420,7 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
-        <v>90</v>
-      </c>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -437,9 +429,7 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
-        <v>90</v>
-      </c>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -448,9 +438,7 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1">
-        <v>90</v>
-      </c>
+      <c r="C4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
